--- a/src/test/resources/entity-expansion-exploit-poc-file.xlsx
+++ b/src/test/resources/entity-expansion-exploit-poc-file.xlsx
@@ -1,11 +1,3 @@
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>poc</t>
-  </si>
-</sst>
-</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
